--- a/app开发进度.xlsx
+++ b/app开发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +226,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,23 +270,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,10 +297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,7 +1076,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1047,7 +1087,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1059,13 +1099,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1074,13 +1114,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1089,25 +1129,25 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -1115,25 +1155,25 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1141,25 +1181,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -1167,19 +1207,19 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1247,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1219,96 +1259,102 @@
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="365.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="302.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
